--- a/outcome/appendix/data/forecast/Typhus.xlsx
+++ b/outcome/appendix/data/forecast/Typhus.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">斑疹伤寒</t>
+    <t xml:space="preserve">Typhus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>61.8179841699941</v>
+        <v>49.1460216757719</v>
       </c>
       <c r="C2" t="n">
-        <v>47.2514910448263</v>
+        <v>-33.4149117811751</v>
       </c>
       <c r="D2" t="n">
-        <v>39.5404553729013</v>
+        <v>-73.2094592544707</v>
       </c>
       <c r="E2" t="n">
-        <v>76.3844772951619</v>
+        <v>116.932467442974</v>
       </c>
       <c r="F2" t="n">
-        <v>84.0955129670869</v>
+        <v>156.72701491627</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>59</v>
       </c>
       <c r="I2" t="n">
-        <v>2.81798416999409</v>
+        <v>-9.85397832422811</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>57.5079083684223</v>
+        <v>35.9640523552277</v>
       </c>
       <c r="C3" t="n">
-        <v>41.2985611810799</v>
+        <v>-152.534945373294</v>
       </c>
       <c r="D3" t="n">
-        <v>32.717851101709</v>
+        <v>-255.079151708793</v>
       </c>
       <c r="E3" t="n">
-        <v>73.7172555557647</v>
+        <v>234.886288339907</v>
       </c>
       <c r="F3" t="n">
-        <v>82.2979656351356</v>
+        <v>337.430494675406</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>41</v>
       </c>
       <c r="I3" t="n">
-        <v>16.5079083684223</v>
+        <v>-5.03594764477226</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>69.7457560935117</v>
+        <v>53.974429431631</v>
       </c>
       <c r="C4" t="n">
-        <v>47.2851827048864</v>
+        <v>-16479.4268068043</v>
       </c>
       <c r="D4" t="n">
-        <v>35.395273368209</v>
+        <v>-25237.103708166</v>
       </c>
       <c r="E4" t="n">
-        <v>92.206329482137</v>
+        <v>16607.8641366387</v>
       </c>
       <c r="F4" t="n">
-        <v>104.096238818814</v>
+        <v>25365.5410380003</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,10 +512,10 @@
         <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>40.7457560935117</v>
+        <v>24.974429431631</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>82.3990769852405</v>
+        <v>57.0398359757099</v>
       </c>
       <c r="C5" t="n">
-        <v>52.8836212253429</v>
+        <v>-803177.275482769</v>
       </c>
       <c r="D5" t="n">
-        <v>37.2590827532478</v>
+        <v>-1228386.88900514</v>
       </c>
       <c r="E5" t="n">
-        <v>111.914532745138</v>
+        <v>803302.885069423</v>
       </c>
       <c r="F5" t="n">
-        <v>127.539071217233</v>
+        <v>1228512.49859179</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>63</v>
       </c>
       <c r="I5" t="n">
-        <v>19.3990769852405</v>
+        <v>-5.96016402429007</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>119.948426759678</v>
+        <v>98.9057021355906</v>
       </c>
       <c r="C6" t="n">
-        <v>72.9910416205736</v>
+        <v>-64169248.2724955</v>
       </c>
       <c r="D6" t="n">
-        <v>48.1333034706588</v>
+        <v>-98138452.9744563</v>
       </c>
       <c r="E6" t="n">
-        <v>166.905811898782</v>
+        <v>64169462.0670472</v>
       </c>
       <c r="F6" t="n">
-        <v>191.763550048697</v>
+        <v>98138666.769008</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,10 +576,10 @@
         <v>67</v>
       </c>
       <c r="I6" t="n">
-        <v>52.948426759678</v>
+        <v>31.9057021355906</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>123.585953413329</v>
+        <v>108.679202403036</v>
       </c>
       <c r="C7" t="n">
-        <v>71.3635828942732</v>
+        <v>-3099469607.24287</v>
       </c>
       <c r="D7" t="n">
-        <v>43.7187298411275</v>
+        <v>-4740229769.79406</v>
       </c>
       <c r="E7" t="n">
-        <v>175.808323932385</v>
+        <v>3099469846.47249</v>
       </c>
       <c r="F7" t="n">
-        <v>203.45317698553</v>
+        <v>4740230009.02368</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>113</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5859534133289</v>
+        <v>-4.32079759696445</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>134.759812106208</v>
+        <v>117.344783046138</v>
       </c>
       <c r="C8" t="n">
-        <v>73.8620274033158</v>
+        <v>-163451489512.446</v>
       </c>
       <c r="D8" t="n">
-        <v>41.624687492458</v>
+        <v>-249977481493.106</v>
       </c>
       <c r="E8" t="n">
-        <v>195.657596809099</v>
+        <v>163451489791.23</v>
       </c>
       <c r="F8" t="n">
-        <v>227.894936719957</v>
+        <v>249977481771.89</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,10 +640,10 @@
         <v>138</v>
       </c>
       <c r="I8" t="n">
-        <v>-3.24018789379238</v>
+        <v>-20.6552169538617</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -651,28 +651,28 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>142.676466650449</v>
+        <v>130.325269643052</v>
       </c>
       <c r="C9" t="n">
-        <v>74.2170082537497</v>
+        <v>-6948984747625.31</v>
       </c>
       <c r="D9" t="n">
-        <v>37.9767600868434</v>
+        <v>-10627555067417</v>
       </c>
       <c r="E9" t="n">
-        <v>211.135925047149</v>
+        <v>6948984747908.21</v>
       </c>
       <c r="F9" t="n">
-        <v>247.376173214055</v>
+        <v>10627555067699.9</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="I9" t="n">
-        <v>15.6764666504492</v>
+        <v>-7.67473035694826</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>138.048222159291</v>
+        <v>130.587182892116</v>
       </c>
       <c r="C10" t="n">
-        <v>68.1169561783843</v>
+        <v>-247207107067673</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0975801399644</v>
+        <v>-378070644679185</v>
       </c>
       <c r="E10" t="n">
-        <v>207.979488140198</v>
+        <v>247207107067936</v>
       </c>
       <c r="F10" t="n">
-        <v>244.998864178618</v>
+        <v>378070644679447</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,10 +704,10 @@
         <v>184</v>
       </c>
       <c r="I10" t="n">
-        <v>-45.951777840709</v>
+        <v>-53.4128171078839</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>168.601681060027</v>
+        <v>160.299602794038</v>
       </c>
       <c r="C11" t="n">
-        <v>78.8506934626706</v>
+        <v>-12628135505089514</v>
       </c>
       <c r="D11" t="n">
-        <v>31.3393905700096</v>
+        <v>-19313066635246296</v>
       </c>
       <c r="E11" t="n">
-        <v>258.352668657383</v>
+        <v>12628135505089862</v>
       </c>
       <c r="F11" t="n">
-        <v>305.863971550044</v>
+        <v>19313066635246648</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,10 +736,10 @@
         <v>192</v>
       </c>
       <c r="I11" t="n">
-        <v>-23.3983189399732</v>
+        <v>-31.7003972059621</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>117.682616628876</v>
+        <v>132.353718499867</v>
       </c>
       <c r="C12" t="n">
-        <v>52.1065134129858</v>
+        <v>-365358688269158336</v>
       </c>
       <c r="D12" t="n">
-        <v>17.3926212785854</v>
+        <v>-558767894869717248</v>
       </c>
       <c r="E12" t="n">
-        <v>183.258719844765</v>
+        <v>365358688269158592</v>
       </c>
       <c r="F12" t="n">
-        <v>217.972611979166</v>
+        <v>558767894869717504</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>131</v>
       </c>
       <c r="I12" t="n">
-        <v>-13.3173833711245</v>
+        <v>1.3537184998672</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>68.656016575114</v>
+        <v>77.3186264807038</v>
       </c>
       <c r="C13" t="n">
-        <v>28.7398262970269</v>
+        <v>-9897248731304613888</v>
       </c>
       <c r="D13" t="n">
-        <v>7.60947155228261</v>
+        <v>-15136535728196325376</v>
       </c>
       <c r="E13" t="n">
-        <v>108.572206853201</v>
+        <v>9897248731304613888</v>
       </c>
       <c r="F13" t="n">
-        <v>129.702561597945</v>
+        <v>15136535728196325376</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,10 +800,10 @@
         <v>55</v>
       </c>
       <c r="I13" t="n">
-        <v>13.656016575114</v>
+        <v>22.3186264807038</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>61.8211614402244</v>
+        <v>49.7032294076162</v>
       </c>
       <c r="C14" t="n">
-        <v>24.4143541651091</v>
+        <v>-338699603167790497792</v>
       </c>
       <c r="D14" t="n">
-        <v>4.61238654032341</v>
+        <v>-517996342585541197824</v>
       </c>
       <c r="E14" t="n">
-        <v>99.2279687153396</v>
+        <v>338699603167790497792</v>
       </c>
       <c r="F14" t="n">
-        <v>119.029936340125</v>
+        <v>517996342585541197824</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,10 +832,10 @@
         <v>45</v>
       </c>
       <c r="I14" t="n">
-        <v>16.8211614402244</v>
+        <v>4.70322940761623</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>57.5108641128989</v>
+        <v>33.7975055335171</v>
       </c>
       <c r="C15" t="n">
-        <v>21.3923040522318</v>
+        <v>-9757897021785206947840</v>
       </c>
       <c r="D15" t="n">
-        <v>2.27229330886627</v>
+        <v>-14923415679666667651072</v>
       </c>
       <c r="E15" t="n">
-        <v>93.629424173566</v>
+        <v>9757897021785206947840</v>
       </c>
       <c r="F15" t="n">
-        <v>112.749434916932</v>
+        <v>14923415679666667651072</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>37</v>
       </c>
       <c r="I15" t="n">
-        <v>20.5108641128989</v>
+        <v>-3.20249446648291</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>69.7493408288844</v>
+        <v>50.1869763933148</v>
       </c>
       <c r="C16" t="n">
-        <v>24.3790350860143</v>
+        <v>-804945827294303173476352</v>
       </c>
       <c r="D16" t="n">
-        <v>0.36144601888715</v>
+        <v>-1231058408743932956508160</v>
       </c>
       <c r="E16" t="n">
-        <v>115.119646571754</v>
+        <v>804945827294303173476352</v>
       </c>
       <c r="F16" t="n">
-        <v>139.137235638882</v>
+        <v>1231058408743932956508160</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,10 +896,10 @@
         <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>34.7493408288844</v>
+        <v>15.1869763933148</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>82.4033120656596</v>
+        <v>54.6019437848384</v>
       </c>
       <c r="C17" t="n">
-        <v>26.989201556555</v>
+        <v>-41502267228435072992411648</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.34525658597589</v>
+        <v>-63472240393169561140068352</v>
       </c>
       <c r="E17" t="n">
-        <v>137.817422574764</v>
+        <v>41502267228435072992411648</v>
       </c>
       <c r="F17" t="n">
-        <v>167.151880717295</v>
+        <v>63472240393169561140068352</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,10 +928,10 @@
         <v>105</v>
       </c>
       <c r="I17" t="n">
-        <v>-22.5966879343404</v>
+        <v>-50.3980562151616</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>119.95459177089</v>
+        <v>94.5775747483254</v>
       </c>
       <c r="C18" t="n">
-        <v>36.6976548167016</v>
+        <v>-3631119634697505619765624832</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.37590532384596</v>
+        <v>-5553318258043722790451806208</v>
       </c>
       <c r="E18" t="n">
-        <v>203.211528725078</v>
+        <v>3631119634697505619765624832</v>
       </c>
       <c r="F18" t="n">
-        <v>247.285088865626</v>
+        <v>5553318258043722790451806208</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>111</v>
       </c>
       <c r="I18" t="n">
-        <v>8.95459177089002</v>
+        <v>-16.4224252516746</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>123.592305383163</v>
+        <v>104.198955408378</v>
       </c>
       <c r="C19" t="n">
-        <v>35.1860734520901</v>
+        <v>-159496762487812335717106843648</v>
       </c>
       <c r="D19" t="n">
-        <v>-11.6133587917035</v>
+        <v>-243929248367003615872361168896</v>
       </c>
       <c r="E19" t="n">
-        <v>211.998537314236</v>
+        <v>159496762487812335717106843648</v>
       </c>
       <c r="F19" t="n">
-        <v>258.79796955803</v>
+        <v>243929248367003615872361168896</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>112</v>
       </c>
       <c r="I19" t="n">
-        <v>11.5923053831631</v>
+        <v>-7.80104459162177</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>134.766738380899</v>
+        <v>115.711598586087</v>
       </c>
       <c r="C20" t="n">
-        <v>35.549560546484</v>
+        <v>-7399222395127394669881301401600</v>
       </c>
       <c r="D20" t="n">
-        <v>-16.9728407600479</v>
+        <v>-11316134128312747220935146209280</v>
       </c>
       <c r="E20" t="n">
-        <v>233.983916215314</v>
+        <v>7399222395127394669881301401600</v>
       </c>
       <c r="F20" t="n">
-        <v>286.506317521846</v>
+        <v>11316134128312747220935146209280</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,10 +1024,10 @@
         <v>101</v>
       </c>
       <c r="I20" t="n">
-        <v>33.7667383808992</v>
+        <v>14.7115985860875</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>142.683799818881</v>
+        <v>128.22392150007</v>
       </c>
       <c r="C21" t="n">
-        <v>34.69672211105</v>
+        <v>-277794044007202679394412454215680</v>
       </c>
       <c r="D21" t="n">
-        <v>-22.4681837559159</v>
+        <v>-424849327964793012550805403729920</v>
       </c>
       <c r="E21" t="n">
-        <v>250.670877526713</v>
+        <v>277794044007202679394412454215680</v>
       </c>
       <c r="F21" t="n">
-        <v>307.835783393679</v>
+        <v>424849327964793012550805403729920</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,10 +1056,10 @@
         <v>143</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.316200181118688</v>
+        <v>-14.7760784999298</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>138.055317448995</v>
+        <v>126.776786067184</v>
       </c>
       <c r="C22" t="n">
-        <v>30.762328502611</v>
+        <v>-9387216545334412034596089970556928</v>
       </c>
       <c r="D22" t="n">
-        <v>-26.0351489687203</v>
+        <v>-14356508812125236468209296789733376</v>
       </c>
       <c r="E22" t="n">
-        <v>245.348306395379</v>
+        <v>9387216545334412034596089970556928</v>
       </c>
       <c r="F22" t="n">
-        <v>302.145783866711</v>
+        <v>14356508812125236468209296789733376</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,10 +1088,10 @@
         <v>211</v>
       </c>
       <c r="I22" t="n">
-        <v>-72.9446825510049</v>
+        <v>-84.2232139328158</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>168.610346711442</v>
+        <v>158.263399825996</v>
       </c>
       <c r="C23" t="n">
-        <v>34.1812773471289</v>
+        <v>-396233415466513970319818027576590336</v>
       </c>
       <c r="D23" t="n">
-        <v>-36.9811733748568</v>
+        <v>-605986715373128585409930177682604032</v>
       </c>
       <c r="E23" t="n">
-        <v>303.039416075755</v>
+        <v>396233415466513970319818027576590336</v>
       </c>
       <c r="F23" t="n">
-        <v>374.201866797741</v>
+        <v>605986715373128585409930177682604032</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,10 +1120,10 @@
         <v>190</v>
       </c>
       <c r="I23" t="n">
-        <v>-21.389653288558</v>
+        <v>-31.736600174004</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>117.68866518383</v>
+        <v>130.300389449571</v>
       </c>
       <c r="C24" t="n">
-        <v>21.518491338309</v>
+        <v>-11027773951156142389172234235687206912</v>
       </c>
       <c r="D24" t="n">
-        <v>-29.3909234896678</v>
+        <v>-16865524848959183771094161390267531264</v>
       </c>
       <c r="E24" t="n">
-        <v>213.858839029351</v>
+        <v>11027773951156142389172234235687206912</v>
       </c>
       <c r="F24" t="n">
-        <v>264.768253857328</v>
+        <v>16865524848959183771094161390267531264</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,10 +1152,10 @@
         <v>155</v>
       </c>
       <c r="I24" t="n">
-        <v>-37.3113348161698</v>
+        <v>-24.6996105504291</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>68.6595453009455</v>
+        <v>80.4768900071272</v>
       </c>
       <c r="C25" t="n">
-        <v>11.2027408568529</v>
+        <v>-243057556400512761865721953813627142144</v>
       </c>
       <c r="D25" t="n">
-        <v>-19.2130541362273</v>
+        <v>-371724454577741785480858063714994094080</v>
       </c>
       <c r="E25" t="n">
-        <v>126.116349745038</v>
+        <v>243057556400512761865721953813627142144</v>
       </c>
       <c r="F25" t="n">
-        <v>156.532144738118</v>
+        <v>371724454577741785480858063714994094080</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,10 +1184,10 @@
         <v>91</v>
       </c>
       <c r="I25" t="n">
-        <v>-22.3404546990545</v>
+        <v>-10.5231099928728</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>61.8243388737574</v>
+        <v>51.6341154045784</v>
       </c>
       <c r="C26" t="n">
-        <v>8.87366763205515</v>
+        <v>-9247879935270699335379601024047430762496</v>
       </c>
       <c r="D26" t="n">
-        <v>-19.1567245349981</v>
+        <v>-14143411856220285572174146909730819276800</v>
       </c>
       <c r="E26" t="n">
-        <v>114.77501011546</v>
+        <v>9247879935270699335379601024047430762496</v>
       </c>
       <c r="F26" t="n">
-        <v>142.805402282513</v>
+        <v>14143411856220285572174146909730819276800</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         <v>63</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.17566112624262</v>
+        <v>-11.3658845954216</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>57.5138200092924</v>
+        <v>32.1514129599344</v>
       </c>
       <c r="C27" t="n">
-        <v>7.14353105350674</v>
+        <v>-251874011204502048003802936563617402716160</v>
       </c>
       <c r="D27" t="n">
-        <v>-19.5208892435205</v>
+        <v>-385208058633736975198900300299981136330752</v>
       </c>
       <c r="E27" t="n">
-        <v>107.884108965078</v>
+        <v>251874011204502048003802936563617402716160</v>
       </c>
       <c r="F27" t="n">
-        <v>134.548529262105</v>
+        <v>385208058633736975198900300299981136330752</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>38</v>
       </c>
       <c r="I27" t="n">
-        <v>19.5138200092924</v>
+        <v>-5.84858704006559</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>69.7529257485024</v>
+        <v>48.0817593064358</v>
       </c>
       <c r="C28" t="n">
-        <v>7.32645460869172</v>
+        <v>-16510264329310151048909315219660274113970176</v>
       </c>
       <c r="D28" t="n">
-        <v>-25.7201230195066</v>
+        <v>-25250270321298329021205162635292320695582720</v>
       </c>
       <c r="E28" t="n">
-        <v>132.179396888313</v>
+        <v>16510264329310151048909315219660274113970176</v>
       </c>
       <c r="F28" t="n">
-        <v>165.225974516511</v>
+        <v>25250270321298329021205162635292320695582720</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,10 +1280,10 @@
         <v>36</v>
       </c>
       <c r="I28" t="n">
-        <v>33.7529257485024</v>
+        <v>12.0817593064358</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>82.4075473637499</v>
+        <v>53.1465422406208</v>
       </c>
       <c r="C29" t="n">
-        <v>7.08735535374839</v>
+        <v>-553587177192593380598424319301811805693673472</v>
       </c>
       <c r="D29" t="n">
-        <v>-32.7847458043449</v>
+        <v>-846638526901253606475057371078622690683125760</v>
       </c>
       <c r="E29" t="n">
-        <v>157.727739373751</v>
+        <v>553587177192593380598424319301811805693673472</v>
       </c>
       <c r="F29" t="n">
-        <v>197.599840531845</v>
+        <v>846638526901253606475057371078622690683125760</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,10 +1312,10 @@
         <v>89</v>
       </c>
       <c r="I29" t="n">
-        <v>-6.59245263625013</v>
+        <v>-35.8534577593792</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>119.960757098966</v>
+        <v>93.8523114407699</v>
       </c>
       <c r="C30" t="n">
-        <v>8.04952311848669</v>
+        <v>-37814373454756266635181995672992409795772284928</v>
       </c>
       <c r="D30" t="n">
-        <v>-51.1927055976087</v>
+        <v>-57832093582418067208704862593747128165370691584</v>
       </c>
       <c r="E30" t="n">
-        <v>231.871991079446</v>
+        <v>37814373454756266635181995672992409795772284928</v>
       </c>
       <c r="F30" t="n">
-        <v>291.114219795541</v>
+        <v>57832093582418067208704862593747128165370691584</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,10 +1344,10 @@
         <v>144</v>
       </c>
       <c r="I30" t="n">
-        <v>-24.0392429010338</v>
+        <v>-50.1476885592301</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>123.598657679471</v>
+        <v>103.617042609096</v>
       </c>
       <c r="C31" t="n">
-        <v>5.9717800479622</v>
+        <v>-1232271698939117910856144540172224522087393394688</v>
       </c>
       <c r="D31" t="n">
-        <v>-56.2961276495034</v>
+        <v>-1884596932361673820691293054977998801940636499968</v>
       </c>
       <c r="E31" t="n">
-        <v>241.225535310979</v>
+        <v>1232271698939117910856144540172224522087393394688</v>
       </c>
       <c r="F31" t="n">
-        <v>303.493443008445</v>
+        <v>1884596932361673820691293054977998801940636499968</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,10 +1376,10 @@
         <v>124</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.401342320529338</v>
+        <v>-20.3829573909038</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>134.773665011582</v>
+        <v>115.296491308078</v>
       </c>
       <c r="C32" t="n">
-        <v>3.99430499015918</v>
+        <v>-36385866120808399505069511730628227418721854947328</v>
       </c>
       <c r="D32" t="n">
-        <v>-65.2361063114006</v>
+        <v>-55647380144844167436279800331090161977636379688960</v>
       </c>
       <c r="E32" t="n">
-        <v>265.553025033004</v>
+        <v>36385866120808399505069511730628227418721854947328</v>
       </c>
       <c r="F32" t="n">
-        <v>334.783436334564</v>
+        <v>55647380144844167436279800331090161977636379688960</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,10 +1408,10 @@
         <v>179</v>
       </c>
       <c r="I32" t="n">
-        <v>-44.2263349884182</v>
+        <v>-63.703508691922</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>142.691133364218</v>
+        <v>127.340489442809</v>
       </c>
       <c r="C33" t="n">
-        <v>1.5775094548242</v>
+        <v>-1114629856229666636711913021656488235774021023563776</v>
       </c>
       <c r="D33" t="n">
-        <v>-73.123530693259</v>
+        <v>-1704679259921027673993965223008529784730116497080320</v>
       </c>
       <c r="E33" t="n">
-        <v>283.804757273611</v>
+        <v>1114629856229666636711913021656488235774021023563776</v>
       </c>
       <c r="F33" t="n">
-        <v>358.505797421694</v>
+        <v>1704679259921027673993965223008529784730116497080320</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>205</v>
       </c>
       <c r="I33" t="n">
-        <v>-62.3088666357824</v>
+        <v>-77.6595105571914</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>138.062413103377</v>
+        <v>124.895847052226</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.02693141346549</v>
+        <v>-37141818070514394201357524483874993186218180238901248</v>
       </c>
       <c r="D34" t="n">
-        <v>-74.6563827809292</v>
+        <v>-56803508883867601521014986527994974046382009920520192</v>
       </c>
       <c r="E34" t="n">
-        <v>277.15175762022</v>
+        <v>37141818070514394201357524483874993186218180238901248</v>
       </c>
       <c r="F34" t="n">
-        <v>350.781208987683</v>
+        <v>56803508883867601521014986527994974046382009920520192</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,10 +1472,10 @@
         <v>174</v>
       </c>
       <c r="I34" t="n">
-        <v>-35.9375868966229</v>
+        <v>-49.1041529477744</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>168.619012808247</v>
+        <v>157.709915217421</v>
       </c>
       <c r="C35" t="n">
-        <v>-4.35912194125433</v>
+        <v>-1464834782962934919024904880896748438247077675085594624</v>
       </c>
       <c r="D35" t="n">
-        <v>-95.9282152058411</v>
+        <v>-2240271476465205596644496066819954379595337123565142016</v>
       </c>
       <c r="E35" t="n">
-        <v>341.597147557749</v>
+        <v>1464834782962934919024904880896748438247077675085594624</v>
       </c>
       <c r="F35" t="n">
-        <v>433.166240822336</v>
+        <v>2240271476465205596644496066819954379595337123565142016</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,10 +1504,10 @@
         <v>118</v>
       </c>
       <c r="I35" t="n">
-        <v>50.6190128082472</v>
+        <v>39.7099152174206</v>
       </c>
       <c r="J35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>117.694714049663</v>
+        <v>130.433349274124</v>
       </c>
       <c r="C36" t="n">
-        <v>-5.2013434921009</v>
+        <v>-28693503805177107879037833530782449908588093209325862912</v>
       </c>
       <c r="D36" t="n">
-        <v>-70.2585865430136</v>
+        <v>-43882927195763239146000446693419573991225701277332668416</v>
       </c>
       <c r="E36" t="n">
-        <v>240.590771591428</v>
+        <v>28693503805177107879037833530782449908588093209325862912</v>
       </c>
       <c r="F36" t="n">
-        <v>305.64801464234</v>
+        <v>43882927195763239146000446693419573991225701277332668416</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,10 +1536,10 @@
         <v>116</v>
       </c>
       <c r="I36" t="n">
-        <v>1.69471404966345</v>
+        <v>14.4333492741236</v>
       </c>
       <c r="J36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>68.6630742081436</v>
+        <v>81.3177791841064</v>
       </c>
       <c r="C37" t="n">
-        <v>-4.28939966987443</v>
+        <v>-348586277025319836673608948180234241020050956192306954240</v>
       </c>
       <c r="D37" t="n">
-        <v>-42.9081065607337</v>
+        <v>-533116705439935314386915276052417710654672024142090338304</v>
       </c>
       <c r="E37" t="n">
-        <v>141.615548086162</v>
+        <v>348586277025319836673608948180234241020050956192306954240</v>
       </c>
       <c r="F37" t="n">
-        <v>180.234254977021</v>
+        <v>533116705439935314386915276052417710654672024142090338304</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,10 +1568,10 @@
         <v>36</v>
       </c>
       <c r="I37" t="n">
-        <v>32.6630742081436</v>
+        <v>45.3177791841064</v>
       </c>
       <c r="J37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>61.8275164706015</v>
+        <v>53.2536566397717</v>
       </c>
       <c r="C38" t="n">
-        <v>-4.99684134798026</v>
+        <v>-5439600805750453074227646121003330688264633732975395078144</v>
       </c>
       <c r="D38" t="n">
-        <v>-40.3715195539693</v>
+        <v>-8319151531772604553075399863587814255228490249370626686976</v>
       </c>
       <c r="E38" t="n">
-        <v>128.651874289183</v>
+        <v>5439600805750453074227646121003330688264633732975395078144</v>
       </c>
       <c r="F38" t="n">
-        <v>164.026552495172</v>
+        <v>8319151531772604553075399863587814255228490249370626686976</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,10 +1600,10 @@
         <v>33</v>
       </c>
       <c r="I38" t="n">
-        <v>28.8275164706015</v>
+        <v>20.2536566397717</v>
       </c>
       <c r="J38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>57.5167760576107</v>
+        <v>29.7522997018203</v>
       </c>
       <c r="C39" t="n">
-        <v>-5.69333273263661</v>
+        <v>-88979246282645210781070283606934474936014221231716005052416</v>
       </c>
       <c r="D39" t="n">
-        <v>-39.1547430748216</v>
+        <v>-136082014001047014854058920610090965010522553263307635032064</v>
       </c>
       <c r="E39" t="n">
-        <v>120.726884847858</v>
+        <v>88979246282645210781070283606934474936014221231716005052416</v>
       </c>
       <c r="F39" t="n">
-        <v>154.188295190043</v>
+        <v>136082014001047014854058920610090965010522553263307635032064</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>50</v>
       </c>
       <c r="I39" t="n">
-        <v>7.5167760576107</v>
+        <v>-20.2477002981797</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>69.7565108523752</v>
+        <v>46.3589049851544</v>
       </c>
       <c r="C40" t="n">
-        <v>-8.16893751255417</v>
+        <v>-3091040973261239601958237654759391311543420005993409891270656</v>
       </c>
       <c r="D40" t="n">
-        <v>-49.420178077417</v>
+        <v>-4727339223182293818787107551701565748833420595468569321406464</v>
       </c>
       <c r="E40" t="n">
-        <v>147.681959217304</v>
+        <v>3091040973261239601958237654759391311543420005993409891270656</v>
       </c>
       <c r="F40" t="n">
-        <v>188.933199782167</v>
+        <v>4727339223182293818787107551701565748833420595468569321406464</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,10 +1664,298 @@
         <v>77</v>
       </c>
       <c r="I40" t="n">
-        <v>-7.24348914762484</v>
+        <v>-30.6410950148456</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>51.5918885360126</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-57729704027988822966650191865192588082374883481129615022358528</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-88289963334352588513057922550287886488412862328153233116102656</v>
+      </c>
+      <c r="E41" t="n">
+        <v>57729704027988822966650191865192588082374883481129615022358528</v>
+      </c>
+      <c r="F41" t="n">
+        <v>88289963334352588513057922550287886488412862328153233116102656</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>119</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-67.4081114639874</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>93.0708255744685</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-2004119669345566381226362126043010855731122550516114126203256832</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-3065036537141921561209496866397500612008797642622494286794457088</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2004119669345566381226362126043010855731122550516114126203256832</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3065036537141921561209496866397500612008797642622494286794457088</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>171</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-77.9291744255315</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>103.235671015098</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-37346495131354081388735640379425100886614047659125124071660978176</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-57116535435816621269361955530478304313490738856389548271042822144</v>
+      </c>
+      <c r="E43" t="n">
+        <v>37346495131354081388735640379425100886614047659125124071660978176</v>
+      </c>
+      <c r="F43" t="n">
+        <v>57116535435816621269361955530478304313490738856389548271042822144</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>131</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-27.7643289849017</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>115.213912171895</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-540983997347213975603891949563456651911679525290531342835762855936</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-827363626653968046385744084581437795746896451285402409578316955648</v>
+      </c>
+      <c r="E44" t="n">
+        <v>540983997347213975603891949563456651911679525290531342835762855936</v>
+      </c>
+      <c r="F44" t="n">
+        <v>827363626653968046385744084581437795746896451285402409578316955648</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>169</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-53.7860878281053</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>126.998333466751</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-14645274046850497923681949917505020052831558814213292340646214893568</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-22398013819559546879695610170843737123132687546461550005769453174784</v>
+      </c>
+      <c r="E45" t="n">
+        <v>14645274046850497923681949917505020052831558814213292340646214893568</v>
+      </c>
+      <c r="F45" t="n">
+        <v>22398013819559546879695610170843737123132687546461550005769453174784</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>217</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-90.0016665332489</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>123.292012558117</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-296248648319968407712880929020508285898581368963905051259405288341504</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-453073209683190831520778145000577505644567676786172766610636901711872</v>
+      </c>
+      <c r="E46" t="n">
+        <v>296248648319968407712880929020508285898581368963905051259405288341504</v>
+      </c>
+      <c r="F46" t="n">
+        <v>453073209683190831520778145000577505644567676786172766610636901711872</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>227</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-103.707987441883</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>156.857069736031</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-8361756719842519622441492852752646284005539287082500306616463453585408</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-12788203345850270392694897555135058281099600883918228575681609906257920</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8361756719842519622441492852752646284005539287082500306616463453585408</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12788203345850270392694897555135058281099600883918228575681609906257920</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>215</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-58.142930263969</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>130.240859271021</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-131971245483979853435970097852566278187366353045005866317967835040579584</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-201832602836840630102913624802363201809313443335574311976696905134505984</v>
+      </c>
+      <c r="E48" t="n">
+        <v>131971245483979853435970097852566278187366353045005866317967835040579584</v>
+      </c>
+      <c r="F48" t="n">
+        <v>201832602836840630102913624802363201809313443335574311976696905134505984</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>170</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-39.7591407289789</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>82.76304529317</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-852611552016401795517182737156764689269770053420293003958740941751189504</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-1303956843940813404125461546622918372087012644482556771235670342760398848</v>
+      </c>
+      <c r="E49" t="n">
+        <v>852611552016401795517182737156764689269770053420293003958740941751189504</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1303956843940813404125461546622918372087012644482556771235670342760398848</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>102</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-19.23695470683</v>
+      </c>
+      <c r="J49" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/data/forecast/Typhus.xlsx
+++ b/outcome/appendix/data/forecast/Typhus.xlsx
@@ -462,16 +462,16 @@
         <v>35.9640523552277</v>
       </c>
       <c r="C3" t="n">
-        <v>-152.534945373294</v>
+        <v>-194.271318702601</v>
       </c>
       <c r="D3" t="n">
-        <v>-255.079151708793</v>
+        <v>-318.909426486693</v>
       </c>
       <c r="E3" t="n">
-        <v>234.886288339907</v>
+        <v>276.622661669214</v>
       </c>
       <c r="F3" t="n">
-        <v>337.430494675406</v>
+        <v>401.260769453306</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>53.974429431631</v>
       </c>
       <c r="C4" t="n">
-        <v>-16479.4268068043</v>
+        <v>-19201.4790350491</v>
       </c>
       <c r="D4" t="n">
-        <v>-25237.103708166</v>
+        <v>-29400.1233437664</v>
       </c>
       <c r="E4" t="n">
-        <v>16607.8641366387</v>
+        <v>19329.9163648834</v>
       </c>
       <c r="F4" t="n">
-        <v>25365.5410380003</v>
+        <v>29528.5606736007</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>57.0398359757099</v>
       </c>
       <c r="C5" t="n">
-        <v>-803177.275482769</v>
+        <v>-1024070.46405556</v>
       </c>
       <c r="D5" t="n">
-        <v>-1228386.88900514</v>
+        <v>-1566213.86817075</v>
       </c>
       <c r="E5" t="n">
-        <v>803302.885069423</v>
+        <v>1024196.07364222</v>
       </c>
       <c r="F5" t="n">
-        <v>1228512.49859179</v>
+        <v>1566339.4777574</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>98.9057021355906</v>
       </c>
       <c r="C6" t="n">
-        <v>-64169248.2724955</v>
+        <v>-105979493.620568</v>
       </c>
       <c r="D6" t="n">
-        <v>-98138452.9744563</v>
+        <v>-162081705.255672</v>
       </c>
       <c r="E6" t="n">
-        <v>64169462.0670472</v>
+        <v>105979707.41512</v>
       </c>
       <c r="F6" t="n">
-        <v>98138666.769008</v>
+        <v>162081919.050224</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>108.679202403036</v>
       </c>
       <c r="C7" t="n">
-        <v>-3099469607.24287</v>
+        <v>-6687365839.9224</v>
       </c>
       <c r="D7" t="n">
-        <v>-4740229769.79406</v>
+        <v>-10227443538.9337</v>
       </c>
       <c r="E7" t="n">
-        <v>3099469846.47249</v>
+        <v>6687366079.15202</v>
       </c>
       <c r="F7" t="n">
-        <v>4740230009.02368</v>
+        <v>10227443778.1633</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>117.344783046138</v>
       </c>
       <c r="C8" t="n">
-        <v>-163451489512.446</v>
+        <v>-412898203770.823</v>
       </c>
       <c r="D8" t="n">
-        <v>-249977481493.106</v>
+        <v>-631473309794.411</v>
       </c>
       <c r="E8" t="n">
-        <v>163451489791.23</v>
+        <v>412898204049.607</v>
       </c>
       <c r="F8" t="n">
-        <v>249977481771.89</v>
+        <v>631473310073.196</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>130.325269643052</v>
       </c>
       <c r="C9" t="n">
-        <v>-6948984747625.31</v>
+        <v>-21166633151405.6</v>
       </c>
       <c r="D9" t="n">
-        <v>-10627555067417</v>
+        <v>-32371571902526.6</v>
       </c>
       <c r="E9" t="n">
-        <v>6948984747908.21</v>
+        <v>21166633151688.5</v>
       </c>
       <c r="F9" t="n">
-        <v>10627555067699.9</v>
+        <v>32371571902809.5</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>130.587182892116</v>
       </c>
       <c r="C10" t="n">
-        <v>-247207107067673</v>
+        <v>-1008217201789911</v>
       </c>
       <c r="D10" t="n">
-        <v>-378070644679185</v>
+        <v>-1541935148947617</v>
       </c>
       <c r="E10" t="n">
-        <v>247207107067936</v>
+        <v>1008217201790173</v>
       </c>
       <c r="F10" t="n">
-        <v>378070644679447</v>
+        <v>1541935148947880</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>160.299602794038</v>
       </c>
       <c r="C11" t="n">
-        <v>-12628135505089514</v>
+        <v>-72145838511457040</v>
       </c>
       <c r="D11" t="n">
-        <v>-19313066635246296</v>
+        <v>-110337538432804944</v>
       </c>
       <c r="E11" t="n">
-        <v>12628135505089862</v>
+        <v>72145838511457392</v>
       </c>
       <c r="F11" t="n">
-        <v>19313066635246648</v>
+        <v>110337538432805296</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>132.353718499867</v>
       </c>
       <c r="C12" t="n">
-        <v>-365358688269158336</v>
+        <v>-2834493395981714432</v>
       </c>
       <c r="D12" t="n">
-        <v>-558767894869717248</v>
+        <v>-4334983562038687232</v>
       </c>
       <c r="E12" t="n">
-        <v>365358688269158592</v>
+        <v>2834493395981714432</v>
       </c>
       <c r="F12" t="n">
-        <v>558767894869717504</v>
+        <v>4334983562038687232</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>77.3186264807038</v>
       </c>
       <c r="C13" t="n">
-        <v>-9897248731304613888</v>
+        <v>-93592559770190774272</v>
       </c>
       <c r="D13" t="n">
-        <v>-15136535728196325376</v>
+        <v>-143137468130307702784</v>
       </c>
       <c r="E13" t="n">
-        <v>9897248731304613888</v>
+        <v>93592559770190774272</v>
       </c>
       <c r="F13" t="n">
-        <v>15136535728196325376</v>
+        <v>143137468130307702784</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>49.7032294076162</v>
       </c>
       <c r="C14" t="n">
-        <v>-338699603167790497792</v>
+        <v>-3594752042045183361024</v>
       </c>
       <c r="D14" t="n">
-        <v>-517996342585541197824</v>
+        <v>-5497698824757254815744</v>
       </c>
       <c r="E14" t="n">
-        <v>338699603167790497792</v>
+        <v>3594752042045183361024</v>
       </c>
       <c r="F14" t="n">
-        <v>517996342585541197824</v>
+        <v>5497698824757254815744</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>33.7975055335171</v>
       </c>
       <c r="C15" t="n">
-        <v>-9757897021785206947840</v>
+        <v>-146849788299181568294912</v>
       </c>
       <c r="D15" t="n">
-        <v>-14923415679666667651072</v>
+        <v>-224587370451548548104192</v>
       </c>
       <c r="E15" t="n">
-        <v>9757897021785206947840</v>
+        <v>146849788299181568294912</v>
       </c>
       <c r="F15" t="n">
-        <v>14923415679666667651072</v>
+        <v>224587370451548548104192</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>50.1869763933148</v>
       </c>
       <c r="C16" t="n">
-        <v>-804945827294303173476352</v>
+        <v>-8330392411599052944179200</v>
       </c>
       <c r="D16" t="n">
-        <v>-1231058408743932956508160</v>
+        <v>-12740235775750128650944512</v>
       </c>
       <c r="E16" t="n">
-        <v>804945827294303173476352</v>
+        <v>8330392411599052944179200</v>
       </c>
       <c r="F16" t="n">
-        <v>1231058408743932956508160</v>
+        <v>12740235775750128650944512</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>54.6019437848384</v>
       </c>
       <c r="C17" t="n">
-        <v>-41502267228435072992411648</v>
+        <v>-329453785151027357518135296</v>
       </c>
       <c r="D17" t="n">
-        <v>-63472240393169561140068352</v>
+        <v>-503856084161553053079568384</v>
       </c>
       <c r="E17" t="n">
-        <v>41502267228435072992411648</v>
+        <v>329453785151027357518135296</v>
       </c>
       <c r="F17" t="n">
-        <v>63472240393169561140068352</v>
+        <v>503856084161553053079568384</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>94.5775747483254</v>
       </c>
       <c r="C18" t="n">
-        <v>-3631119634697505619765624832</v>
+        <v>-28340350869825813905749835776</v>
       </c>
       <c r="D18" t="n">
-        <v>-5553318258043722790451806208</v>
+        <v>-43342826389106266571651678208</v>
       </c>
       <c r="E18" t="n">
-        <v>3631119634697505619765624832</v>
+        <v>28340350869825813905749835776</v>
       </c>
       <c r="F18" t="n">
-        <v>5553318258043722790451806208</v>
+        <v>43342826389106266571651678208</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>104.198955408378</v>
       </c>
       <c r="C19" t="n">
-        <v>-159496762487812335717106843648</v>
+        <v>-1439559720618756856032169820160</v>
       </c>
       <c r="D19" t="n">
-        <v>-243929248367003615872361168896</v>
+        <v>-2201616604329380427529505996800</v>
       </c>
       <c r="E19" t="n">
-        <v>159496762487812335717106843648</v>
+        <v>1439559720618756856032169820160</v>
       </c>
       <c r="F19" t="n">
-        <v>243929248367003615872361168896</v>
+        <v>2201616604329380427529505996800</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>115.711598586087</v>
       </c>
       <c r="C20" t="n">
-        <v>-7399222395127394669881301401600</v>
+        <v>-71789148140199517704033201553408</v>
       </c>
       <c r="D20" t="n">
-        <v>-11316134128312747220935146209280</v>
+        <v>-109792027584788455863438941356032</v>
       </c>
       <c r="E20" t="n">
-        <v>7399222395127394669881301401600</v>
+        <v>71789148140199517704033201553408</v>
       </c>
       <c r="F20" t="n">
-        <v>11316134128312747220935146209280</v>
+        <v>109792027584788455863438941356032</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>128.22392150007</v>
       </c>
       <c r="C21" t="n">
-        <v>-277794044007202679394412454215680</v>
+        <v>-2923138026511630067010056205893632</v>
       </c>
       <c r="D21" t="n">
-        <v>-424849327964793012550805403729920</v>
+        <v>-4470553825407420803705710705639424</v>
       </c>
       <c r="E21" t="n">
-        <v>277794044007202679394412454215680</v>
+        <v>2923138026511630067010056205893632</v>
       </c>
       <c r="F21" t="n">
-        <v>424849327964793012550805403729920</v>
+        <v>4470553825407420803705710705639424</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>126.776786067184</v>
       </c>
       <c r="C22" t="n">
-        <v>-9387216545334412034596089970556928</v>
+        <v>-121934280389353994223007918396014592</v>
       </c>
       <c r="D22" t="n">
-        <v>-14356508812125236468209296789733376</v>
+        <v>-186482389370250563468193335837982720</v>
       </c>
       <c r="E22" t="n">
-        <v>9387216545334412034596089970556928</v>
+        <v>121934280389353994223007918396014592</v>
       </c>
       <c r="F22" t="n">
-        <v>14356508812125236468209296789733376</v>
+        <v>186482389370250563468193335837982720</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>158.263399825996</v>
       </c>
       <c r="C23" t="n">
-        <v>-396233415466513970319818027576590336</v>
+        <v>-7128492056011535585652281727969656832</v>
       </c>
       <c r="D23" t="n">
-        <v>-605986715373128585409930177682604032</v>
+        <v>-10902087804734728193168305310272585728</v>
       </c>
       <c r="E23" t="n">
-        <v>396233415466513970319818027576590336</v>
+        <v>7128492056011535585652281727969656832</v>
       </c>
       <c r="F23" t="n">
-        <v>605986715373128585409930177682604032</v>
+        <v>10902087804734728193168305310272585728</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>130.300389449571</v>
       </c>
       <c r="C24" t="n">
-        <v>-11027773951156142389172234235687206912</v>
+        <v>-231401563633035577667062161528431050752</v>
       </c>
       <c r="D24" t="n">
-        <v>-16865524848959183771094161390267531264</v>
+        <v>-353898151959472655508231821725408428032</v>
       </c>
       <c r="E24" t="n">
-        <v>11027773951156142389172234235687206912</v>
+        <v>231401563633035577667062161528431050752</v>
       </c>
       <c r="F24" t="n">
-        <v>16865524848959183771094161390267531264</v>
+        <v>353898151959472655508231821725408428032</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>80.4768900071272</v>
       </c>
       <c r="C25" t="n">
-        <v>-243057556400512761865721953813627142144</v>
+        <v>-5161691216400157125769345110991282634752</v>
       </c>
       <c r="D25" t="n">
-        <v>-371724454577741785480858063714994094080</v>
+        <v>-7894125492454843868807437153500443705344</v>
       </c>
       <c r="E25" t="n">
-        <v>243057556400512761865721953813627142144</v>
+        <v>5161691216400157125769345110991282634752</v>
       </c>
       <c r="F25" t="n">
-        <v>371724454577741785480858063714994094080</v>
+        <v>7894125492454843868807437153500443705344</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>51.6341154045784</v>
       </c>
       <c r="C26" t="n">
-        <v>-9247879935270699335379601024047430762496</v>
+        <v>-154416861053624098204290214644738366111744</v>
       </c>
       <c r="D26" t="n">
-        <v>-14143411856220285572174146909730819276800</v>
+        <v>-236160209552095493764135743468052443824128</v>
       </c>
       <c r="E26" t="n">
-        <v>9247879935270699335379601024047430762496</v>
+        <v>154416861053624098204290214644738366111744</v>
       </c>
       <c r="F26" t="n">
-        <v>14143411856220285572174146909730819276800</v>
+        <v>236160209552095493764135743468052443824128</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>32.1514129599344</v>
       </c>
       <c r="C27" t="n">
-        <v>-251874011204502048003802936563617402716160</v>
+        <v>-6573049981009628456074944992147092895956992</v>
       </c>
       <c r="D27" t="n">
-        <v>-385208058633736975198900300299981136330752</v>
+        <v>-10052612456437440971879357612722785360019456</v>
       </c>
       <c r="E27" t="n">
-        <v>251874011204502048003802936563617402716160</v>
+        <v>6573049981009628456074944992147092895956992</v>
       </c>
       <c r="F27" t="n">
-        <v>385208058633736975198900300299981136330752</v>
+        <v>10052612456437440971879357612722785360019456</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>48.0817593064358</v>
       </c>
       <c r="C28" t="n">
-        <v>-16510264329310151048909315219660274113970176</v>
+        <v>-305204116334818921251713485445283117329809408</v>
       </c>
       <c r="D28" t="n">
-        <v>-25250270321298329021205162635292320695582720</v>
+        <v>-466769416098691947013206000674413806738210816</v>
       </c>
       <c r="E28" t="n">
-        <v>16510264329310151048909315219660274113970176</v>
+        <v>305204116334818921251713485445283117329809408</v>
       </c>
       <c r="F28" t="n">
-        <v>25250270321298329021205162635292320695582720</v>
+        <v>466769416098691947013206000674413806738210816</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>53.1465422406208</v>
       </c>
       <c r="C29" t="n">
-        <v>-553587177192593380598424319301811805693673472</v>
+        <v>-11463790668162373856728655651068043362469675008</v>
       </c>
       <c r="D29" t="n">
-        <v>-846638526901253606475057371078622690683125760</v>
+        <v>-17532354873568024766385922925123936834960752640</v>
       </c>
       <c r="E29" t="n">
-        <v>553587177192593380598424319301811805693673472</v>
+        <v>11463790668162373856728655651068043362469675008</v>
       </c>
       <c r="F29" t="n">
-        <v>846638526901253606475057371078622690683125760</v>
+        <v>17532354873568024766385922925123936834960752640</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>93.8523114407699</v>
       </c>
       <c r="C30" t="n">
-        <v>-37814373454756266635181995672992409795772284928</v>
+        <v>-949204589272937139684580872220548008923736571904</v>
       </c>
       <c r="D30" t="n">
-        <v>-57832093582418067208704862593747128165370691584</v>
+        <v>-1451683146393335589282156456127437264686847885312</v>
       </c>
       <c r="E30" t="n">
-        <v>37814373454756266635181995672992409795772284928</v>
+        <v>949204589272937139684580872220548008923736571904</v>
       </c>
       <c r="F30" t="n">
-        <v>57832093582418067208704862593747128165370691584</v>
+        <v>1451683146393335589282156456127437264686847885312</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>103.617042609096</v>
       </c>
       <c r="C31" t="n">
-        <v>-1232271698939117910856144540172224522087393394688</v>
+        <v>-52278610333429619146600338629262505812053005959168</v>
       </c>
       <c r="D31" t="n">
-        <v>-1884596932361673820691293054977998801940636499968</v>
+        <v>-79953234945940671693052838018631823461037377585152</v>
       </c>
       <c r="E31" t="n">
-        <v>1232271698939117910856144540172224522087393394688</v>
+        <v>52278610333429619146600338629262505812053005959168</v>
       </c>
       <c r="F31" t="n">
-        <v>1884596932361673820691293054977998801940636499968</v>
+        <v>79953234945940671693052838018631823461037377585152</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>115.296491308078</v>
       </c>
       <c r="C32" t="n">
-        <v>-36385866120808399505069511730628227418721854947328</v>
+        <v>-2051479596303948275129112035529183986544537015156736</v>
       </c>
       <c r="D32" t="n">
-        <v>-55647380144844167436279800331090161977636379688960</v>
+        <v>-3137467295017380474135622587407041013653175531470848</v>
       </c>
       <c r="E32" t="n">
-        <v>36385866120808399505069511730628227418721854947328</v>
+        <v>2051479596303948275129112035529183986544537015156736</v>
       </c>
       <c r="F32" t="n">
-        <v>55647380144844167436279800331090161977636379688960</v>
+        <v>3137467295017380474135622587407041013653175531470848</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>127.340489442809</v>
       </c>
       <c r="C33" t="n">
-        <v>-1114629856229666636711913021656488235774021023563776</v>
+        <v>-86771402940884496223047767784618023248255709458989056</v>
       </c>
       <c r="D33" t="n">
-        <v>-1704679259921027673993965223008529784730116497080320</v>
+        <v>-132705408993726341555428836882892380544030263853711360</v>
       </c>
       <c r="E33" t="n">
-        <v>1114629856229666636711913021656488235774021023563776</v>
+        <v>86771402940884496223047767784618023248255709458989056</v>
       </c>
       <c r="F33" t="n">
-        <v>1704679259921027673993965223008529784730116497080320</v>
+        <v>132705408993726341555428836882892380544030263853711360</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>124.895847052226</v>
       </c>
       <c r="C34" t="n">
-        <v>-37141818070514394201357524483874993186218180238901248</v>
+        <v>-3524516733519856321214853882384173557201240492020334592</v>
       </c>
       <c r="D34" t="n">
-        <v>-56803508883867601521014986527994974046382009920520192</v>
+        <v>-5390283189792772945798955661381782799473442929950851072</v>
       </c>
       <c r="E34" t="n">
-        <v>37141818070514394201357524483874993186218180238901248</v>
+        <v>3524516733519856321214853882384173557201240492020334592</v>
       </c>
       <c r="F34" t="n">
-        <v>56803508883867601521014986527994974046382009920520192</v>
+        <v>5390283189792772945798955661381782799473442929950851072</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>157.709915217421</v>
       </c>
       <c r="C35" t="n">
-        <v>-1464834782962934919024904880896748438247077675085594624</v>
+        <v>-161693347550222259586194461310074277970981128529938219008</v>
       </c>
       <c r="D35" t="n">
-        <v>-2240271476465205596644496066819954379595337123565142016</v>
+        <v>-247288635321887921207086280305024159722954924281640779776</v>
       </c>
       <c r="E35" t="n">
-        <v>1464834782962934919024904880896748438247077675085594624</v>
+        <v>161693347550222259586194461310074277970981128529938219008</v>
       </c>
       <c r="F35" t="n">
-        <v>2240271476465205596644496066819954379595337123565142016</v>
+        <v>247288635321887921207086280305024159722954924281640779776</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>130.433349274124</v>
       </c>
       <c r="C36" t="n">
-        <v>-28693503805177107879037833530782449908588093209325862912</v>
+        <v>-4324823906335543015460457035124225485375984039247602515968</v>
       </c>
       <c r="D36" t="n">
-        <v>-43882927195763239146000446693419573991225701277332668416</v>
+        <v>-6614247388706023142733268911425394325686734483289815384064</v>
       </c>
       <c r="E36" t="n">
-        <v>28693503805177107879037833530782449908588093209325862912</v>
+        <v>4324823906335543015460457035124225485375984039247602515968</v>
       </c>
       <c r="F36" t="n">
-        <v>43882927195763239146000446693419573991225701277332668416</v>
+        <v>6614247388706023142733268911425394325686734483289815384064</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>81.3177791841064</v>
       </c>
       <c r="C37" t="n">
-        <v>-348586277025319836673608948180234241020050956192306954240</v>
+        <v>-89665192901641006814004313859136786100389436864854923149312</v>
       </c>
       <c r="D37" t="n">
-        <v>-533116705439935314386915276052417710654672024142090338304</v>
+        <v>-137131078825822494188636506489228128224632597969744865263616</v>
       </c>
       <c r="E37" t="n">
-        <v>348586277025319836673608948180234241020050956192306954240</v>
+        <v>89665192901641006814004313859136786100389436864854923149312</v>
       </c>
       <c r="F37" t="n">
-        <v>533116705439935314386915276052417710654672024142090338304</v>
+        <v>137131078825822494188636506489228128224632597969744865263616</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>53.2536566397717</v>
       </c>
       <c r="C38" t="n">
-        <v>-5439600805750453074227646121003330688264633732975395078144</v>
+        <v>-2029747803507539392943206165361904775123049386608006923288576</v>
       </c>
       <c r="D38" t="n">
-        <v>-8319151531772604553075399863587814255228490249370626686976</v>
+        <v>-3104231386025807171456078899643717284746843942372981755346944</v>
       </c>
       <c r="E38" t="n">
-        <v>5439600805750453074227646121003330688264633732975395078144</v>
+        <v>2029747803507539392943206165361904775123049386608006923288576</v>
       </c>
       <c r="F38" t="n">
-        <v>8319151531772604553075399863587814255228490249370626686976</v>
+        <v>3104231386025807171456078899643717284746843942372981755346944</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>29.7522997018203</v>
       </c>
       <c r="C39" t="n">
-        <v>-88979246282645210781070283606934474936014221231716005052416</v>
+        <v>-68855285180542599916842603345419772398684107858096865578844160</v>
       </c>
       <c r="D39" t="n">
-        <v>-136082014001047014854058920610090965010522553263307635032064</v>
+        <v>-105305071389576719865599918048605288371882211777315093092499456</v>
       </c>
       <c r="E39" t="n">
-        <v>88979246282645210781070283606934474936014221231716005052416</v>
+        <v>68855285180542599916842603345419772398684107858096865578844160</v>
       </c>
       <c r="F39" t="n">
-        <v>136082014001047014854058920610090965010522553263307635032064</v>
+        <v>105305071389576719865599918048605288371882211777315093092499456</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>46.3589049851544</v>
       </c>
       <c r="C40" t="n">
-        <v>-3091040973261239601958237654759391311543420005993409891270656</v>
+        <v>-3016495659619319468110334741877265034768741599372617747015925760</v>
       </c>
       <c r="D40" t="n">
-        <v>-4727339223182293818787107551701565748833420595468569321406464</v>
+        <v>-4613332004212280717374045497801973448709754760122293151655264256</v>
       </c>
       <c r="E40" t="n">
-        <v>3091040973261239601958237654759391311543420005993409891270656</v>
+        <v>3016495659619319468110334741877265034768741599372617747015925760</v>
       </c>
       <c r="F40" t="n">
-        <v>4727339223182293818787107551701565748833420595468569321406464</v>
+        <v>4613332004212280717374045497801973448709754760122293151655264256</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1678,16 +1678,16 @@
         <v>51.5918885360126</v>
       </c>
       <c r="C41" t="n">
-        <v>-57729704027988822966650191865192588082374883481129615022358528</v>
+        <v>-72895563894997631548316100061840061430369027430269643245265879040</v>
       </c>
       <c r="D41" t="n">
-        <v>-88289963334352588513057922550287886488412862328153233116102656</v>
+        <v>-111484144460640003274746315218573375170835800017787124492531662848</v>
       </c>
       <c r="E41" t="n">
-        <v>57729704027988822966650191865192588082374883481129615022358528</v>
+        <v>72895563894997631548316100061840061430369027430269643245265879040</v>
       </c>
       <c r="F41" t="n">
-        <v>88289963334352588513057922550287886488412862328153233116102656</v>
+        <v>111484144460640003274746315218573375170835800017787124492531662848</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1710,16 +1710,16 @@
         <v>93.0708255744685</v>
       </c>
       <c r="C42" t="n">
-        <v>-2004119669345566381226362126043010855731122550516114126203256832</v>
+        <v>-4998098770219211347790288320792431266864788879730272128639078236160</v>
       </c>
       <c r="D42" t="n">
-        <v>-3065036537141921561209496866397500612008797642622494286794457088</v>
+        <v>-7643932436414057079483887986652539505577166617025919939713158873088</v>
       </c>
       <c r="E42" t="n">
-        <v>2004119669345566381226362126043010855731122550516114126203256832</v>
+        <v>4998098770219211347790288320792431266864788879730272128639078236160</v>
       </c>
       <c r="F42" t="n">
-        <v>3065036537141921561209496866397500612008797642622494286794457088</v>
+        <v>7643932436414057079483887986652539505577166617025919939713158873088</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1742,16 +1742,16 @@
         <v>103.235671015098</v>
       </c>
       <c r="C43" t="n">
-        <v>-37346495131354081388735640379425100886614047659125124071660978176</v>
+        <v>-149571574949673180922557602485801966093894477403064575978875295629312</v>
       </c>
       <c r="D43" t="n">
-        <v>-57116535435816621269361955530478304313490738856389548271042822144</v>
+        <v>-228749983921025706534326288452918898912536419936552163395935485820928</v>
       </c>
       <c r="E43" t="n">
-        <v>37346495131354081388735640379425100886614047659125124071660978176</v>
+        <v>149571574949673180922557602485801966093894477403064575978875295629312</v>
       </c>
       <c r="F43" t="n">
-        <v>57116535435816621269361955530478304313490738856389548271042822144</v>
+        <v>228749983921025706534326288452918898912536419936552163395935485820928</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1774,16 +1774,16 @@
         <v>115.213912171895</v>
       </c>
       <c r="C44" t="n">
-        <v>-540983997347213975603891949563456651911679525290531342835762855936</v>
+        <v>-3797352441199065271278708504836223411564991499350969753865214465409024</v>
       </c>
       <c r="D44" t="n">
-        <v>-827363626653968046385744084581437795746896451285402409578316955648</v>
+        <v>-5807549396728819257298373917370432540808150736291772801353753999441920</v>
       </c>
       <c r="E44" t="n">
-        <v>540983997347213975603891949563456651911679525290531342835762855936</v>
+        <v>3797352441199065271278708504836223411564991499350969753865214465409024</v>
       </c>
       <c r="F44" t="n">
-        <v>827363626653968046385744084581437795746896451285402409578316955648</v>
+        <v>5807549396728819257298373917370432540808150736291772801353753999441920</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1806,16 +1806,16 @@
         <v>126.998333466751</v>
       </c>
       <c r="C45" t="n">
-        <v>-14645274046850497923681949917505020052831558814213292340646214893568</v>
+        <v>-81426329898472002207092105240554968360533144035339356746267260742533120</v>
       </c>
       <c r="D45" t="n">
-        <v>-22398013819559546879695610170843737123132687546461550005769453174784</v>
+        <v>-124530825200515842336987545812578488096134908824969720095965370361315328</v>
       </c>
       <c r="E45" t="n">
-        <v>14645274046850497923681949917505020052831558814213292340646214893568</v>
+        <v>81426329898472002207092105240554968360533144035339356746267260742533120</v>
       </c>
       <c r="F45" t="n">
-        <v>22398013819559546879695610170843737123132687546461550005769453174784</v>
+        <v>124530825200515842336987545812578488096134908824969720095965370361315328</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1838,16 +1838,16 @@
         <v>123.292012558117</v>
       </c>
       <c r="C46" t="n">
-        <v>-296248648319968407712880929020508285898581368963905051259405288341504</v>
+        <v>-1664180495528080130324794094464462810751837102345985907578846472185053184</v>
       </c>
       <c r="D46" t="n">
-        <v>-453073209683190831520778145000577505644567676786172766610636901711872</v>
+        <v>-2545144434842127855884755193078384546968979918264137975046389119789826048</v>
       </c>
       <c r="E46" t="n">
-        <v>296248648319968407712880929020508285898581368963905051259405288341504</v>
+        <v>1664180495528080130324794094464462810751837102345985907578846472185053184</v>
       </c>
       <c r="F46" t="n">
-        <v>453073209683190831520778145000577505644567676786172766610636901711872</v>
+        <v>2545144434842127855884755193078384546968979918264137975046389119789826048</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1870,16 +1870,16 @@
         <v>156.857069736031</v>
       </c>
       <c r="C47" t="n">
-        <v>-8361756719842519622441492852752646284005539287082500306616463453585408</v>
+        <v>-39982381261679052339908447127781160504552565104938652991993505626978254848</v>
       </c>
       <c r="D47" t="n">
-        <v>-12788203345850270392694897555135058281099600883918228575681609906257920</v>
+        <v>-61147775396566995633608581777059772722877177897687109866881771559458963456</v>
       </c>
       <c r="E47" t="n">
-        <v>8361756719842519622441492852752646284005539287082500306616463453585408</v>
+        <v>39982381261679052339908447127781160504552565104938652991993505626978254848</v>
       </c>
       <c r="F47" t="n">
-        <v>12788203345850270392694897555135058281099600883918228575681609906257920</v>
+        <v>61147775396566995633608581777059772722877177897687109866881771559458963456</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1902,16 +1902,16 @@
         <v>130.240859271021</v>
       </c>
       <c r="C48" t="n">
-        <v>-131971245483979853435970097852566278187366353045005866317967835040579584</v>
+        <v>-518516673903347894071417531487024384605951818466173415331346870664412790784</v>
       </c>
       <c r="D48" t="n">
-        <v>-201832602836840630102913624802363201809313443335574311976696905134505984</v>
+        <v>-793002820610024885576032177837512824641714047241249432355966566968638570496</v>
       </c>
       <c r="E48" t="n">
-        <v>131971245483979853435970097852566278187366353045005866317967835040579584</v>
+        <v>518516673903347894071417531487024384605951818466173415331346870664412790784</v>
       </c>
       <c r="F48" t="n">
-        <v>201832602836840630102913624802363201809313443335574311976696905134505984</v>
+        <v>793002820610024885576032177837512824641714047241249432355966566968638570496</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1934,16 +1934,16 @@
         <v>82.76304529317</v>
       </c>
       <c r="C49" t="n">
-        <v>-852611552016401795517182737156764689269770053420293003958740941751189504</v>
+        <v>-4686893761934033302011651485445943010667181678194476983455476967873427013632</v>
       </c>
       <c r="D49" t="n">
-        <v>-1303956843940813404125461546622918372087012644482556771235670342760398848</v>
+        <v>-7167985448055271385842345044810932863654457924191895763370389386174232788992</v>
       </c>
       <c r="E49" t="n">
-        <v>852611552016401795517182737156764689269770053420293003958740941751189504</v>
+        <v>4686893761934033302011651485445943010667181678194476983455476967873427013632</v>
       </c>
       <c r="F49" t="n">
-        <v>1303956843940813404125461546622918372087012644482556771235670342760398848</v>
+        <v>7167985448055271385842345044810932863654457924191895763370389386174232788992</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>

--- a/outcome/appendix/data/forecast/Typhus.xlsx
+++ b/outcome/appendix/data/forecast/Typhus.xlsx
@@ -462,16 +462,16 @@
         <v>35.9640523552277</v>
       </c>
       <c r="C3" t="n">
-        <v>-194.271318702601</v>
+        <v>-134.875296795271</v>
       </c>
       <c r="D3" t="n">
-        <v>-318.909426486693</v>
+        <v>-228.071049871041</v>
       </c>
       <c r="E3" t="n">
-        <v>276.622661669214</v>
+        <v>217.226639761883</v>
       </c>
       <c r="F3" t="n">
-        <v>401.260769453306</v>
+        <v>310.422392837653</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>53.974429431631</v>
       </c>
       <c r="C4" t="n">
-        <v>-19201.4790350491</v>
+        <v>-9358.35309463759</v>
       </c>
       <c r="D4" t="n">
-        <v>-29400.1233437664</v>
+        <v>-14346.3612812932</v>
       </c>
       <c r="E4" t="n">
-        <v>19329.9163648834</v>
+        <v>9486.79042447193</v>
       </c>
       <c r="F4" t="n">
-        <v>29528.5606736007</v>
+        <v>14474.7986111275</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>57.0398359757099</v>
       </c>
       <c r="C5" t="n">
-        <v>-1024070.46405556</v>
+        <v>-218979.904942134</v>
       </c>
       <c r="D5" t="n">
-        <v>-1566213.86817075</v>
+        <v>-334934.111210693</v>
       </c>
       <c r="E5" t="n">
-        <v>1024196.07364222</v>
+        <v>219105.514528788</v>
       </c>
       <c r="F5" t="n">
-        <v>1566339.4777574</v>
+        <v>335059.720797347</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>98.9057021355906</v>
       </c>
       <c r="C6" t="n">
-        <v>-105979493.620568</v>
+        <v>-9006350.3747576</v>
       </c>
       <c r="D6" t="n">
-        <v>-162081705.255672</v>
+        <v>-13774080.8576921</v>
       </c>
       <c r="E6" t="n">
-        <v>105979707.41512</v>
+        <v>9006564.1693093</v>
       </c>
       <c r="F6" t="n">
-        <v>162081919.050224</v>
+        <v>13774294.6522438</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>108.679202403036</v>
       </c>
       <c r="C7" t="n">
-        <v>-6687365839.9224</v>
+        <v>-292905499.002744</v>
       </c>
       <c r="D7" t="n">
-        <v>-10227443538.9337</v>
+        <v>-447960367.340602</v>
       </c>
       <c r="E7" t="n">
-        <v>6687366079.15202</v>
+        <v>292905738.232366</v>
       </c>
       <c r="F7" t="n">
-        <v>10227443778.1633</v>
+        <v>447960606.570224</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>117.344783046138</v>
       </c>
       <c r="C8" t="n">
-        <v>-412898203770.823</v>
+        <v>-6673937118.83788</v>
       </c>
       <c r="D8" t="n">
-        <v>-631473309794.411</v>
+        <v>-10206906092.7828</v>
       </c>
       <c r="E8" t="n">
-        <v>412898204049.607</v>
+        <v>6673937397.62198</v>
       </c>
       <c r="F8" t="n">
-        <v>631473310073.196</v>
+        <v>10206906371.5669</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>130.325269643052</v>
       </c>
       <c r="C9" t="n">
-        <v>-21166633151405.6</v>
+        <v>-149776651408.317</v>
       </c>
       <c r="D9" t="n">
-        <v>-32371571902526.6</v>
+        <v>-229063621374.085</v>
       </c>
       <c r="E9" t="n">
-        <v>21166633151688.5</v>
+        <v>149776651691.22</v>
       </c>
       <c r="F9" t="n">
-        <v>32371571902809.5</v>
+        <v>229063621656.988</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>130.587182892116</v>
       </c>
       <c r="C10" t="n">
-        <v>-1008217201789911</v>
+        <v>-2404986484689.44</v>
       </c>
       <c r="D10" t="n">
-        <v>-1541935148947617</v>
+        <v>-3678109426196.14</v>
       </c>
       <c r="E10" t="n">
-        <v>1008217201790173</v>
+        <v>2404986484952.19</v>
       </c>
       <c r="F10" t="n">
-        <v>1541935148947880</v>
+        <v>3678109426458.89</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>160.299602794038</v>
       </c>
       <c r="C11" t="n">
-        <v>-72145838511457040</v>
+        <v>-62060463900290.7</v>
       </c>
       <c r="D11" t="n">
-        <v>-110337538432804944</v>
+        <v>-94913288999687.4</v>
       </c>
       <c r="E11" t="n">
-        <v>72145838511457392</v>
+        <v>62060463900640.2</v>
       </c>
       <c r="F11" t="n">
-        <v>110337538432805296</v>
+        <v>94913289000036.9</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>132.353718499867</v>
       </c>
       <c r="C12" t="n">
-        <v>-2834493395981714432</v>
+        <v>-682343356966111</v>
       </c>
       <c r="D12" t="n">
-        <v>-4334983562038687232</v>
+        <v>-1043554111047806</v>
       </c>
       <c r="E12" t="n">
-        <v>2834493395981714432</v>
+        <v>682343356966360</v>
       </c>
       <c r="F12" t="n">
-        <v>4334983562038687232</v>
+        <v>1043554111048055</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>77.3186264807038</v>
       </c>
       <c r="C13" t="n">
-        <v>-93592559770190774272</v>
+        <v>-7481638947291335</v>
       </c>
       <c r="D13" t="n">
-        <v>-143137468130307702784</v>
+        <v>-11442179367782062</v>
       </c>
       <c r="E13" t="n">
-        <v>93592559770190774272</v>
+        <v>7481638947291495</v>
       </c>
       <c r="F13" t="n">
-        <v>143137468130307702784</v>
+        <v>11442179367782222</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>49.7032294076162</v>
       </c>
       <c r="C14" t="n">
-        <v>-3594752042045183361024</v>
+        <v>-78473349670395920</v>
       </c>
       <c r="D14" t="n">
-        <v>-5497698824757254815744</v>
+        <v>-120014631666291232</v>
       </c>
       <c r="E14" t="n">
-        <v>3594752042045183361024</v>
+        <v>78473349670396048</v>
       </c>
       <c r="F14" t="n">
-        <v>5497698824757254815744</v>
+        <v>120014631666291360</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>33.7975055335171</v>
       </c>
       <c r="C15" t="n">
-        <v>-146849788299181568294912</v>
+        <v>-1358285981514044416</v>
       </c>
       <c r="D15" t="n">
-        <v>-224587370451548548104192</v>
+        <v>-2077319146609488640</v>
       </c>
       <c r="E15" t="n">
-        <v>146849788299181568294912</v>
+        <v>1358285981514044416</v>
       </c>
       <c r="F15" t="n">
-        <v>224587370451548548104192</v>
+        <v>2077319146609488640</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>50.1869763933148</v>
       </c>
       <c r="C16" t="n">
-        <v>-8330392411599052944179200</v>
+        <v>-37965506198462365696</v>
       </c>
       <c r="D16" t="n">
-        <v>-12740235775750128650944512</v>
+        <v>-58063231167914123264</v>
       </c>
       <c r="E16" t="n">
-        <v>8330392411599052944179200</v>
+        <v>37965506198462365696</v>
       </c>
       <c r="F16" t="n">
-        <v>12740235775750128650944512</v>
+        <v>58063231167914123264</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>54.6019437848384</v>
       </c>
       <c r="C17" t="n">
-        <v>-329453785151027357518135296</v>
+        <v>-450067602254340947968</v>
       </c>
       <c r="D17" t="n">
-        <v>-503856084161553053079568384</v>
+        <v>-688318999206206111744</v>
       </c>
       <c r="E17" t="n">
-        <v>329453785151027357518135296</v>
+        <v>450067602254340947968</v>
       </c>
       <c r="F17" t="n">
-        <v>503856084161553053079568384</v>
+        <v>688318999206206111744</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>94.5775747483254</v>
       </c>
       <c r="C18" t="n">
-        <v>-28340350869825813905749835776</v>
+        <v>-14745013929990869221376</v>
       </c>
       <c r="D18" t="n">
-        <v>-43342826389106266571651678208</v>
+        <v>-22550552807481024708608</v>
       </c>
       <c r="E18" t="n">
-        <v>28340350869825813905749835776</v>
+        <v>14745013929990869221376</v>
       </c>
       <c r="F18" t="n">
-        <v>43342826389106266571651678208</v>
+        <v>22550552807481024708608</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>104.198955408378</v>
       </c>
       <c r="C19" t="n">
-        <v>-1439559720618756856032169820160</v>
+        <v>-473635022010687024005120</v>
       </c>
       <c r="D19" t="n">
-        <v>-2201616604329380427529505996800</v>
+        <v>-724362257372994636611584</v>
       </c>
       <c r="E19" t="n">
-        <v>1439559720618756856032169820160</v>
+        <v>473635022010687024005120</v>
       </c>
       <c r="F19" t="n">
-        <v>2201616604329380427529505996800</v>
+        <v>724362257372994636611584</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>115.711598586087</v>
       </c>
       <c r="C20" t="n">
-        <v>-71789148140199517704033201553408</v>
+        <v>-10510245324961709570392064</v>
       </c>
       <c r="D20" t="n">
-        <v>-109792027584788455863438941356032</v>
+        <v>-16074033116920655632138240</v>
       </c>
       <c r="E20" t="n">
-        <v>71789148140199517704033201553408</v>
+        <v>10510245324961709570392064</v>
       </c>
       <c r="F20" t="n">
-        <v>109792027584788455863438941356032</v>
+        <v>16074033116920655632138240</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>128.22392150007</v>
       </c>
       <c r="C21" t="n">
-        <v>-2923138026511630067010056205893632</v>
+        <v>-157364571931663538583502848</v>
       </c>
       <c r="D21" t="n">
-        <v>-4470553825407420803705710705639424</v>
+        <v>-240668344310870554164854784</v>
       </c>
       <c r="E21" t="n">
-        <v>2923138026511630067010056205893632</v>
+        <v>157364571931663538583502848</v>
       </c>
       <c r="F21" t="n">
-        <v>4470553825407420803705710705639424</v>
+        <v>240668344310870554164854784</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>126.776786067184</v>
       </c>
       <c r="C22" t="n">
-        <v>-121934280389353994223007918396014592</v>
+        <v>-2266041477890029293806813184</v>
       </c>
       <c r="D22" t="n">
-        <v>-186482389370250563468193335837982720</v>
+        <v>-3465611375731884122387251200</v>
       </c>
       <c r="E22" t="n">
-        <v>121934280389353994223007918396014592</v>
+        <v>2266041477890029293806813184</v>
       </c>
       <c r="F22" t="n">
-        <v>186482389370250563468193335837982720</v>
+        <v>3465611375731884122387251200</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>158.263399825996</v>
       </c>
       <c r="C23" t="n">
-        <v>-7128492056011535585652281727969656832</v>
+        <v>-55012762079974052254193811456</v>
       </c>
       <c r="D23" t="n">
-        <v>-10902087804734728193168305310272585728</v>
+        <v>-84134759197925887449168347136</v>
       </c>
       <c r="E23" t="n">
-        <v>7128492056011535585652281727969656832</v>
+        <v>55012762079974052254193811456</v>
       </c>
       <c r="F23" t="n">
-        <v>10902087804734728193168305310272585728</v>
+        <v>84134759197925887449168347136</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>130.300389449571</v>
       </c>
       <c r="C24" t="n">
-        <v>-231401563633035577667062161528431050752</v>
+        <v>-505110215184908239970320252928</v>
       </c>
       <c r="D24" t="n">
-        <v>-353898151959472655508231821725408428032</v>
+        <v>-772499411340497139633345265664</v>
       </c>
       <c r="E24" t="n">
-        <v>231401563633035577667062161528431050752</v>
+        <v>505110215184908239970320252928</v>
       </c>
       <c r="F24" t="n">
-        <v>353898151959472655508231821725408428032</v>
+        <v>772499411340497139633345265664</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>80.4768900071272</v>
       </c>
       <c r="C25" t="n">
-        <v>-5161691216400157125769345110991282634752</v>
+        <v>-4760352386207376627996517466112</v>
       </c>
       <c r="D25" t="n">
-        <v>-7894125492454843868807437153500443705344</v>
+        <v>-7280330719053734139219650019328</v>
       </c>
       <c r="E25" t="n">
-        <v>5161691216400157125769345110991282634752</v>
+        <v>4760352386207376627996517466112</v>
       </c>
       <c r="F25" t="n">
-        <v>7894125492454843868807437153500443705344</v>
+        <v>7280330719053734139219650019328</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>51.6341154045784</v>
       </c>
       <c r="C26" t="n">
-        <v>-154416861053624098204290214644738366111744</v>
+        <v>-41762276854798986299206816235520</v>
       </c>
       <c r="D26" t="n">
-        <v>-236160209552095493764135743468052443824128</v>
+        <v>-63869890801477892994329529548800</v>
       </c>
       <c r="E26" t="n">
-        <v>154416861053624098204290214644738366111744</v>
+        <v>41762276854798986299206816235520</v>
       </c>
       <c r="F26" t="n">
-        <v>236160209552095493764135743468052443824128</v>
+        <v>63869890801477892994329529548800</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>32.1514129599344</v>
       </c>
       <c r="C27" t="n">
-        <v>-6573049981009628456074944992147092895956992</v>
+        <v>-531346790279256574689644518572032</v>
       </c>
       <c r="D27" t="n">
-        <v>-10052612456437440971879357612722785360019456</v>
+        <v>-812624790330417843518400073039872</v>
       </c>
       <c r="E27" t="n">
-        <v>6573049981009628456074944992147092895956992</v>
+        <v>531346790279256574689644518572032</v>
       </c>
       <c r="F27" t="n">
-        <v>10052612456437440971879357612722785360019456</v>
+        <v>812624790330417843518400073039872</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>48.0817593064358</v>
       </c>
       <c r="C28" t="n">
-        <v>-305204116334818921251713485445283117329809408</v>
+        <v>-5217607627021111162439311667757056</v>
       </c>
       <c r="D28" t="n">
-        <v>-466769416098691947013206000674413806738210816</v>
+        <v>-7979642262835637724215916611239936</v>
       </c>
       <c r="E28" t="n">
-        <v>305204116334818921251713485445283117329809408</v>
+        <v>5217607627021111162439311667757056</v>
       </c>
       <c r="F28" t="n">
-        <v>466769416098691947013206000674413806738210816</v>
+        <v>7979642262835637724215916611239936</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>53.1465422406208</v>
       </c>
       <c r="C29" t="n">
-        <v>-11463790668162373856728655651068043362469675008</v>
+        <v>-94520892089928544972514332212461568</v>
       </c>
       <c r="D29" t="n">
-        <v>-17532354873568024766385922925123936834960752640</v>
+        <v>-144557229895100490462856221575610368</v>
       </c>
       <c r="E29" t="n">
-        <v>11463790668162373856728655651068043362469675008</v>
+        <v>94520892089928544972514332212461568</v>
       </c>
       <c r="F29" t="n">
-        <v>17532354873568024766385922925123936834960752640</v>
+        <v>144557229895100490462856221575610368</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>93.8523114407699</v>
       </c>
       <c r="C30" t="n">
-        <v>-949204589272937139684580872220548008923736571904</v>
+        <v>-2180238299378306722723447708432990208</v>
       </c>
       <c r="D30" t="n">
-        <v>-1451683146393335589282156456127437264686847885312</v>
+        <v>-3334386738219485483468291753426026496</v>
       </c>
       <c r="E30" t="n">
-        <v>949204589272937139684580872220548008923736571904</v>
+        <v>2180238299378306722723447708432990208</v>
       </c>
       <c r="F30" t="n">
-        <v>1451683146393335589282156456127437264686847885312</v>
+        <v>3334386738219485483468291753426026496</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>103.617042609096</v>
       </c>
       <c r="C31" t="n">
-        <v>-52278610333429619146600338629262505812053005959168</v>
+        <v>-56082770847502408141379068643225108480</v>
       </c>
       <c r="D31" t="n">
-        <v>-79953234945940671693052838018631823461037377585152</v>
+        <v>-85771196391622773175686930389901770752</v>
       </c>
       <c r="E31" t="n">
-        <v>52278610333429619146600338629262505812053005959168</v>
+        <v>56082770847502408141379068643225108480</v>
       </c>
       <c r="F31" t="n">
-        <v>79953234945940671693052838018631823461037377585152</v>
+        <v>85771196391622773175686930389901770752</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>115.296491308078</v>
       </c>
       <c r="C32" t="n">
-        <v>-2051479596303948275129112035529183986544537015156736</v>
+        <v>-828588946533521999998733475090767282176</v>
       </c>
       <c r="D32" t="n">
-        <v>-3137467295017380474135622587407041013653175531470848</v>
+        <v>-1267217439279206577920759896046066204672</v>
       </c>
       <c r="E32" t="n">
-        <v>2051479596303948275129112035529183986544537015156736</v>
+        <v>828588946533521999998733475090767282176</v>
       </c>
       <c r="F32" t="n">
-        <v>3137467295017380474135622587407041013653175531470848</v>
+        <v>1267217439279206577920759896046066204672</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>127.340489442809</v>
       </c>
       <c r="C33" t="n">
-        <v>-86771402940884496223047767784618023248255709458989056</v>
+        <v>-9374964521240294941555678678964475265024</v>
       </c>
       <c r="D33" t="n">
-        <v>-132705408993726341555428836882892380544030263853711360</v>
+        <v>-14337770958255126347324685772048916545536</v>
       </c>
       <c r="E33" t="n">
-        <v>86771402940884496223047767784618023248255709458989056</v>
+        <v>9374964521240294941555678678964475265024</v>
       </c>
       <c r="F33" t="n">
-        <v>132705408993726341555428836882892380544030263853711360</v>
+        <v>14337770958255126347324685772048916545536</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>124.895847052226</v>
       </c>
       <c r="C34" t="n">
-        <v>-3524516733519856321214853882384173557201240492020334592</v>
+        <v>-53039400672767963243033679055277650870272</v>
       </c>
       <c r="D34" t="n">
-        <v>-5390283189792772945798955661381782799473442929950851072</v>
+        <v>-81116763363352023250843748101514613227520</v>
       </c>
       <c r="E34" t="n">
-        <v>3524516733519856321214853882384173557201240492020334592</v>
+        <v>53039400672767963243033679055277650870272</v>
       </c>
       <c r="F34" t="n">
-        <v>5390283189792772945798955661381782799473442929950851072</v>
+        <v>81116763363352023250843748101514613227520</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>157.709915217421</v>
       </c>
       <c r="C35" t="n">
-        <v>-161693347550222259586194461310074277970981128529938219008</v>
+        <v>-1283242295738450205468689442598455435329536</v>
       </c>
       <c r="D35" t="n">
-        <v>-247288635321887921207086280305024159722954924281640779776</v>
+        <v>-1962549733234536696575524642573503294341120</v>
       </c>
       <c r="E35" t="n">
-        <v>161693347550222259586194461310074277970981128529938219008</v>
+        <v>1283242295738450205468689442598455435329536</v>
       </c>
       <c r="F35" t="n">
-        <v>247288635321887921207086280305024159722954924281640779776</v>
+        <v>1962549733234536696575524642573503294341120</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>130.433349274124</v>
       </c>
       <c r="C36" t="n">
-        <v>-4324823906335543015460457035124225485375984039247602515968</v>
+        <v>-10348481077780215771189325007948607507136512</v>
       </c>
       <c r="D36" t="n">
-        <v>-6614247388706023142733268911425394325686734483289815384064</v>
+        <v>-15826636049969838055451382448341885344808960</v>
       </c>
       <c r="E36" t="n">
-        <v>4324823906335543015460457035124225485375984039247602515968</v>
+        <v>10348481077780215771189325007948607507136512</v>
       </c>
       <c r="F36" t="n">
-        <v>6614247388706023142733268911425394325686734483289815384064</v>
+        <v>15826636049969838055451382448341885344808960</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>81.3177791841064</v>
       </c>
       <c r="C37" t="n">
-        <v>-89665192901641006814004313859136786100389436864854923149312</v>
+        <v>-125895017161961797263478624350649304953651200</v>
       </c>
       <c r="D37" t="n">
-        <v>-137131078825822494188636506489228128224632597969744865263616</v>
+        <v>-192539813538942374696741711124704377790529536</v>
       </c>
       <c r="E37" t="n">
-        <v>89665192901641006814004313859136786100389436864854923149312</v>
+        <v>125895017161961797263478624350649304953651200</v>
       </c>
       <c r="F37" t="n">
-        <v>137131078825822494188636506489228128224632597969744865263616</v>
+        <v>192539813538942374696741711124704377790529536</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>53.2536566397717</v>
       </c>
       <c r="C38" t="n">
-        <v>-2029747803507539392943206165361904775123049386608006923288576</v>
+        <v>-875631541697177073433562553358500975842689024</v>
       </c>
       <c r="D38" t="n">
-        <v>-3104231386025807171456078899643717284746843942372981755346944</v>
+        <v>-1339162880055037325165285114665206983210041344</v>
       </c>
       <c r="E38" t="n">
-        <v>2029747803507539392943206165361904775123049386608006923288576</v>
+        <v>875631541697177073433562553358500975842689024</v>
       </c>
       <c r="F38" t="n">
-        <v>3104231386025807171456078899643717284746843942372981755346944</v>
+        <v>1339162880055037325165285114665206983210041344</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>29.7522997018203</v>
       </c>
       <c r="C39" t="n">
-        <v>-68855285180542599916842603345419772398684107858096865578844160</v>
+        <v>-8335119589442578817129529168072790564914855936</v>
       </c>
       <c r="D39" t="n">
-        <v>-105305071389576719865599918048605288371882211777315093092499456</v>
+        <v>-12747465370384417344231110997873317729850621952</v>
       </c>
       <c r="E39" t="n">
-        <v>68855285180542599916842603345419772398684107858096865578844160</v>
+        <v>8335119589442578817129529168072790564914855936</v>
       </c>
       <c r="F39" t="n">
-        <v>105305071389576719865599918048605288371882211777315093092499456</v>
+        <v>12747465370384417344231110997873317729850621952</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>46.3589049851544</v>
       </c>
       <c r="C40" t="n">
-        <v>-3016495659619319468110334741877265034768741599372617747015925760</v>
+        <v>-135826028796815616250763937193287616133735645184</v>
       </c>
       <c r="D40" t="n">
-        <v>-4613332004212280717374045497801973448709754760122293151655264256</v>
+        <v>-207727985172200220725289014153986471593229942784</v>
       </c>
       <c r="E40" t="n">
-        <v>3016495659619319468110334741877265034768741599372617747015925760</v>
+        <v>135826028796815616250763937193287616133735645184</v>
       </c>
       <c r="F40" t="n">
-        <v>4613332004212280717374045497801973448709754760122293151655264256</v>
+        <v>207727985172200220725289014153986471593229942784</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1678,16 +1678,16 @@
         <v>51.5918885360126</v>
       </c>
       <c r="C41" t="n">
-        <v>-72895563894997631548316100061840061430369027430269643245265879040</v>
+        <v>-4315610038711185366565302306225037219861509439488</v>
       </c>
       <c r="D41" t="n">
-        <v>-111484144460640003274746315218573375170835800017787124492531662848</v>
+        <v>-6600155994190511149395738985022692114019657973760</v>
       </c>
       <c r="E41" t="n">
-        <v>72895563894997631548316100061840061430369027430269643245265879040</v>
+        <v>4315610038711185366565302306225037219861509439488</v>
       </c>
       <c r="F41" t="n">
-        <v>111484144460640003274746315218573375170835800017787124492531662848</v>
+        <v>6600155994190511149395738985022692114019657973760</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1710,16 +1710,16 @@
         <v>93.0708255744685</v>
       </c>
       <c r="C42" t="n">
-        <v>-4998098770219211347790288320792431266864788879730272128639078236160</v>
+        <v>-57191618455414126340498758652693211966299076296704</v>
       </c>
       <c r="D42" t="n">
-        <v>-7643932436414057079483887986652539505577166617025919939713158873088</v>
+        <v>-87467032465863612466272753544930266430854131613696</v>
       </c>
       <c r="E42" t="n">
-        <v>4998098770219211347790288320792431266864788879730272128639078236160</v>
+        <v>57191618455414126340498758652693211966299076296704</v>
       </c>
       <c r="F42" t="n">
-        <v>7643932436414057079483887986652539505577166617025919939713158873088</v>
+        <v>87467032465863612466272753544930266430854131613696</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1742,16 +1742,16 @@
         <v>103.235671015098</v>
       </c>
       <c r="C43" t="n">
-        <v>-149571574949673180922557602485801966093894477403064575978875295629312</v>
+        <v>-3793583361960304756906742732326669898357052503228416</v>
       </c>
       <c r="D43" t="n">
-        <v>-228749983921025706534326288452918898912536419936552163395935485820928</v>
+        <v>-5801785087463816078664436395318398380019130155663360</v>
       </c>
       <c r="E43" t="n">
-        <v>149571574949673180922557602485801966093894477403064575978875295629312</v>
+        <v>3793583361960304756906742732326669898357052503228416</v>
       </c>
       <c r="F43" t="n">
-        <v>228749983921025706534326288452918898912536419936552163395935485820928</v>
+        <v>5801785087463816078664436395318398380019130155663360</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1774,16 +1774,16 @@
         <v>115.213912171895</v>
       </c>
       <c r="C44" t="n">
-        <v>-3797352441199065271278708504836223411564991499350969753865214465409024</v>
+        <v>-35560733440381282451734761931592351725836532302479360</v>
       </c>
       <c r="D44" t="n">
-        <v>-5807549396728819257298373917370432540808150736291772801353753999441920</v>
+        <v>-54385448608428073256169958871485533352037743899705344</v>
       </c>
       <c r="E44" t="n">
-        <v>3797352441199065271278708504836223411564991499350969753865214465409024</v>
+        <v>35560733440381282451734761931592351725836532302479360</v>
       </c>
       <c r="F44" t="n">
-        <v>5807549396728819257298373917370432540808150736291772801353753999441920</v>
+        <v>54385448608428073256169958871485533352037743899705344</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1806,16 +1806,16 @@
         <v>126.998333466751</v>
       </c>
       <c r="C45" t="n">
-        <v>-81426329898472002207092105240554968360533144035339356746267260742533120</v>
+        <v>-332609847397649020990637204725484377755511301039194112</v>
       </c>
       <c r="D45" t="n">
-        <v>-124530825200515842336987545812578488096134908824969720095965370361315328</v>
+        <v>-508682864841046266809754072372141726150037080264146944</v>
       </c>
       <c r="E45" t="n">
-        <v>81426329898472002207092105240554968360533144035339356746267260742533120</v>
+        <v>332609847397649020990637204725484377755511301039194112</v>
       </c>
       <c r="F45" t="n">
-        <v>124530825200515842336987545812578488096134908824969720095965370361315328</v>
+        <v>508682864841046266809754072372141726150037080264146944</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1838,16 +1838,16 @@
         <v>123.292012558117</v>
       </c>
       <c r="C46" t="n">
-        <v>-1664180495528080130324794094464462810751837102345985907578846472185053184</v>
+        <v>-2055225202670631968398167588422974476604159819809554432</v>
       </c>
       <c r="D46" t="n">
-        <v>-2545144434842127855884755193078384546968979918264137975046389119789826048</v>
+        <v>-3143195705622414804601749147775694845267394785796161536</v>
       </c>
       <c r="E46" t="n">
-        <v>1664180495528080130324794094464462810751837102345985907578846472185053184</v>
+        <v>2055225202670631968398167588422974476604159819809554432</v>
       </c>
       <c r="F46" t="n">
-        <v>2545144434842127855884755193078384546968979918264137975046389119789826048</v>
+        <v>3143195705622414804601749147775694845267394785796161536</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1870,16 +1870,16 @@
         <v>156.857069736031</v>
       </c>
       <c r="C47" t="n">
-        <v>-39982381261679052339908447127781160504552565104938652991993505626978254848</v>
+        <v>-50392501440100466642403530147151609942251222179560554496</v>
       </c>
       <c r="D47" t="n">
-        <v>-61147775396566995633608581777059772722877177897687109866881771559458963456</v>
+        <v>-77068680316041793072406324512772485602927035546943356928</v>
       </c>
       <c r="E47" t="n">
-        <v>39982381261679052339908447127781160504552565104938652991993505626978254848</v>
+        <v>50392501440100466642403530147151609942251222179560554496</v>
       </c>
       <c r="F47" t="n">
-        <v>61147775396566995633608581777059772722877177897687109866881771559458963456</v>
+        <v>77068680316041793072406324512772485602927035546943356928</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1902,16 +1902,16 @@
         <v>130.240859271021</v>
       </c>
       <c r="C48" t="n">
-        <v>-518516673903347894071417531487024384605951818466173415331346870664412790784</v>
+        <v>-316603090424424888609374519703157938721739571598324662272</v>
       </c>
       <c r="D48" t="n">
-        <v>-793002820610024885576032177837512824641714047241249432355966566968638570496</v>
+        <v>-484202642569636797734958481440839818806866199340461850624</v>
       </c>
       <c r="E48" t="n">
-        <v>518516673903347894071417531487024384605951818466173415331346870664412790784</v>
+        <v>316603090424424888609374519703157938721739571598324662272</v>
       </c>
       <c r="F48" t="n">
-        <v>793002820610024885576032177837512824641714047241249432355966566968638570496</v>
+        <v>484202642569636797734958481440839818806866199340461850624</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1934,16 +1934,16 @@
         <v>82.76304529317</v>
       </c>
       <c r="C49" t="n">
-        <v>-4686893761934033302011651485445943010667181678194476983455476967873427013632</v>
+        <v>-2573787307046698556098551140080116229889179282694308102144</v>
       </c>
       <c r="D49" t="n">
-        <v>-7167985448055271385842345044810932863654457924191895763370389386174232788992</v>
+        <v>-3936268006144697783132865879608797152998527804975915991040</v>
       </c>
       <c r="E49" t="n">
-        <v>4686893761934033302011651485445943010667181678194476983455476967873427013632</v>
+        <v>2573787307046698556098551140080116229889179282694308102144</v>
       </c>
       <c r="F49" t="n">
-        <v>7167985448055271385842345044810932863654457924191895763370389386174232788992</v>
+        <v>3936268006144697783132865879608797152998527804975915991040</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
